--- a/Fulton Hogan Civil/6103374/matrix_Burwood Truck Crossing.xlsx
+++ b/Fulton Hogan Civil/6103374/matrix_Burwood Truck Crossing.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Fulton Hogan Civil\6103374\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9F489E4C-3FA7-4401-8DEA-8E92A5F2C6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389EB2B6-4979-489E-9396-02D284EE303B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="1110" windowWidth="28905" windowHeight="18450" xr2:uid="{094704D8-7B6F-49E9-BF99-0537CC78131F}"/>
+    <workbookView xWindow="9360" yWindow="840" windowWidth="28905" windowHeight="20010" xr2:uid="{094704D8-7B6F-49E9-BF99-0537CC78131F}"/>
   </bookViews>
   <sheets>
     <sheet name="matrix" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">matrix!$C$191:$F$235</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="102">
   <si>
     <t>Matrix Name</t>
   </si>
@@ -40,9 +43,6 @@
     <t>Tag 2</t>
   </si>
   <si>
-    <t>Overall Progress</t>
-  </si>
-  <si>
     <t>Scope</t>
   </si>
   <si>
@@ -53,6 +53,282 @@
   </si>
   <si>
     <t>Columns</t>
+  </si>
+  <si>
+    <t>Project Overview</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Date Completed:</t>
+  </si>
+  <si>
+    <t>1.1 Check for correct documentation</t>
+  </si>
+  <si>
+    <t>Final Inspection</t>
+  </si>
+  <si>
+    <t>Print Name:</t>
+  </si>
+  <si>
+    <t>Position:</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>FHC-ITP-001 - Subgrade Preparation</t>
+  </si>
+  <si>
+    <t>FHC-ITP-003 - Track Placement</t>
+  </si>
+  <si>
+    <t>FHC-ITP-004 - Concrete Track Slab Pour</t>
+  </si>
+  <si>
+    <t>FHC-ITP-005 - Subsurface Drainage</t>
+  </si>
+  <si>
+    <t>FHC-ITP-006 - Kerb and Channel</t>
+  </si>
+  <si>
+    <t>FHC-ITP-007 - Structural Concrete Construction</t>
+  </si>
+  <si>
+    <t>Preliminary Works</t>
+  </si>
+  <si>
+    <t>1.2 Implementation of all measures and controls</t>
+  </si>
+  <si>
+    <t>1.3 Selection and approval of Disposal Site</t>
+  </si>
+  <si>
+    <t>Construction Works</t>
+  </si>
+  <si>
+    <t>2.1 Excavation</t>
+  </si>
+  <si>
+    <t>2.2 Inspection of Subgrade Material</t>
+  </si>
+  <si>
+    <t>2.3 Width and Level conformity</t>
+  </si>
+  <si>
+    <t>1.1 Check for Correct Documentation</t>
+  </si>
+  <si>
+    <t>1.2 Check Materials</t>
+  </si>
+  <si>
+    <t>1.3 Check Special Works Components</t>
+  </si>
+  <si>
+    <t>1.4 Check Curved rail</t>
+  </si>
+  <si>
+    <t>1.5 Welders Qualifications</t>
+  </si>
+  <si>
+    <t>1.6 Ultrasonic Testers Qualifications</t>
+  </si>
+  <si>
+    <t>2.1 Installation of Sleeper</t>
+  </si>
+  <si>
+    <t>2.2 Placement of Rail</t>
+  </si>
+  <si>
+    <t>2.3 Placement of Jewellery</t>
+  </si>
+  <si>
+    <t>2.4 Rail End Preparation</t>
+  </si>
+  <si>
+    <t>2.5 Welding of Rail</t>
+  </si>
+  <si>
+    <t>2.6 Grinding &amp; Cleaning Welds</t>
+  </si>
+  <si>
+    <t>2.7 Track Adjustment</t>
+  </si>
+  <si>
+    <t>2.8 Track Bonds</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>3.1 Track Testing</t>
+  </si>
+  <si>
+    <t>1.2 Submission &amp; Approval of Concrete Mix Design Prior to Commencement of Project</t>
+  </si>
+  <si>
+    <t>2.1 Weather Monitoring</t>
+  </si>
+  <si>
+    <t>2.2 Surface Preperation</t>
+  </si>
+  <si>
+    <t>2.3 Setting Out</t>
+  </si>
+  <si>
+    <t>2.4 Formwork</t>
+  </si>
+  <si>
+    <t>2.5 Reinforcement</t>
+  </si>
+  <si>
+    <t>2.6 Dowels</t>
+  </si>
+  <si>
+    <t>2.7 Pre Pour Inspection</t>
+  </si>
+  <si>
+    <t>2.8 Carry out sampling of concrete</t>
+  </si>
+  <si>
+    <t>2.9 Concrete Placement</t>
+  </si>
+  <si>
+    <t>2.10 Compaction</t>
+  </si>
+  <si>
+    <t>2.11 Record location of each batch</t>
+  </si>
+  <si>
+    <t>2.12 Curing</t>
+  </si>
+  <si>
+    <t>2.13 Tolerances</t>
+  </si>
+  <si>
+    <t>2.14 Slab finish</t>
+  </si>
+  <si>
+    <t>2.15 Post Pour Inspection</t>
+  </si>
+  <si>
+    <t>1.3 Placement of no fines concrete</t>
+  </si>
+  <si>
+    <t>1.4 Material Classification</t>
+  </si>
+  <si>
+    <t>2.1 Excavation Permit</t>
+  </si>
+  <si>
+    <t>2.2 Excavation of Trench</t>
+  </si>
+  <si>
+    <t>2.3 Placement of bedding</t>
+  </si>
+  <si>
+    <t>2.4 Placing pipes and geofabric (if required)</t>
+  </si>
+  <si>
+    <t>2.5 Placement of backfill</t>
+  </si>
+  <si>
+    <t>2.6 Install Pits and Flushouts</t>
+  </si>
+  <si>
+    <t>2.1 Setting Out</t>
+  </si>
+  <si>
+    <t>2.2 Temporary Drainage Provisions</t>
+  </si>
+  <si>
+    <t>2.3 Bedding</t>
+  </si>
+  <si>
+    <t>2.4 Pre-concrete check</t>
+  </si>
+  <si>
+    <t>2.5 Concrete Placement</t>
+  </si>
+  <si>
+    <t>2.6 Finish Surfaces</t>
+  </si>
+  <si>
+    <t>2.7 Tolerances</t>
+  </si>
+  <si>
+    <t>2.8 Joints</t>
+  </si>
+  <si>
+    <t>2.9 Backfilling</t>
+  </si>
+  <si>
+    <t>Design and Submissions</t>
+  </si>
+  <si>
+    <t>1.3 Approval of mix design</t>
+  </si>
+  <si>
+    <t>1.4 Reinforcement schedule</t>
+  </si>
+  <si>
+    <t>Construction/Erection of Formwork</t>
+  </si>
+  <si>
+    <t>2.2 Construction Methodology</t>
+  </si>
+  <si>
+    <t>Pre-Pour Planning and Inspection</t>
+  </si>
+  <si>
+    <t>3.1 Excavation/Foundation – Blinding, sealing or foundation concrete</t>
+  </si>
+  <si>
+    <t>3.2 Formwork levels and position</t>
+  </si>
+  <si>
+    <t>3.3 Location of splices</t>
+  </si>
+  <si>
+    <t>3.4 Cleaning formwork</t>
+  </si>
+  <si>
+    <t>3.5 Correct forms, reinforcements, rag bolt assembly and embedments</t>
+  </si>
+  <si>
+    <t>3.6 Monitoring weather</t>
+  </si>
+  <si>
+    <t>Placing and Finishing Concrete</t>
+  </si>
+  <si>
+    <t>4.1 Carry out sampling of concrete</t>
+  </si>
+  <si>
+    <t>4.2 Discharge time</t>
+  </si>
+  <si>
+    <t>4.3 Methodology of placement (structural)</t>
+  </si>
+  <si>
+    <t>Post-Pour Details and Inspection</t>
+  </si>
+  <si>
+    <t>5.1 Curing</t>
+  </si>
+  <si>
+    <t>5.2 Formwork removal</t>
+  </si>
+  <si>
+    <t>5.3 Positional tolerance and dimensions of concrete members and piles</t>
+  </si>
+  <si>
+    <t>5.4 Concrete Sampling and Testing</t>
+  </si>
+  <si>
+    <t>5.5 As Built Drawings</t>
   </si>
 </sst>
 </file>
@@ -195,7 +471,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,6 +651,11 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5D5E3"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -536,8 +817,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -913,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16EF041-A184-4873-A38F-D767E07AD295}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="A186" sqref="A186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,27 +1231,2645 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>10</v>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>32</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" t="s">
+        <v>35</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" t="s">
+        <v>35</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" t="s">
+        <v>36</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" t="s">
+        <v>36</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" t="s">
+        <v>37</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>37</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>38</v>
+      </c>
+      <c r="E60" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" t="s">
+        <v>39</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>39</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>40</v>
+      </c>
+      <c r="E64" t="s">
+        <v>40</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>40</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>41</v>
+      </c>
+      <c r="E66" t="s">
+        <v>41</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" t="s">
+        <v>41</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>42</v>
+      </c>
+      <c r="E68" t="s">
+        <v>42</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" t="s">
+        <v>42</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>43</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>44</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>46</v>
+      </c>
+      <c r="E74" t="s">
+        <v>46</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" t="s">
+        <v>46</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>47</v>
+      </c>
+      <c r="E88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" t="s">
+        <v>47</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>48</v>
+      </c>
+      <c r="E90" t="s">
+        <v>48</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" t="s">
+        <v>48</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>49</v>
+      </c>
+      <c r="E92" t="s">
+        <v>49</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" t="s">
+        <v>49</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>50</v>
+      </c>
+      <c r="E94" t="s">
+        <v>50</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" t="s">
+        <v>50</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>51</v>
+      </c>
+      <c r="E96" t="s">
+        <v>51</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" t="s">
+        <v>51</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>52</v>
+      </c>
+      <c r="E98" t="s">
+        <v>52</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" t="s">
+        <v>52</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>53</v>
+      </c>
+      <c r="E100" t="s">
+        <v>53</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" t="s">
+        <v>53</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>54</v>
+      </c>
+      <c r="E102" t="s">
+        <v>54</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" t="s">
+        <v>54</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>55</v>
+      </c>
+      <c r="E104" t="s">
+        <v>55</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" t="s">
+        <v>55</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>56</v>
+      </c>
+      <c r="E106" t="s">
+        <v>56</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" t="s">
+        <v>56</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>57</v>
+      </c>
+      <c r="E108" t="s">
+        <v>57</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" t="s">
+        <v>57</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>58</v>
+      </c>
+      <c r="E110" t="s">
+        <v>58</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="111" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" t="s">
+        <v>58</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>59</v>
+      </c>
+      <c r="E112" t="s">
+        <v>59</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" t="s">
+        <v>59</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>60</v>
+      </c>
+      <c r="E114" t="s">
+        <v>60</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" t="s">
+        <v>60</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>61</v>
+      </c>
+      <c r="E116" t="s">
+        <v>61</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" t="s">
+        <v>61</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>62</v>
+      </c>
+      <c r="E118" t="s">
+        <v>62</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" t="s">
+        <v>62</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" t="s">
+        <v>14</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" t="s">
+        <v>15</v>
+      </c>
+      <c r="E121" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" t="s">
+        <v>16</v>
+      </c>
+      <c r="E122" t="s">
+        <v>14</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
+        <v>21</v>
+      </c>
+      <c r="D128" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131" t="s">
+        <v>13</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
+        <v>25</v>
+      </c>
+      <c r="E132" t="s">
+        <v>25</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133" t="s">
+        <v>25</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C134" t="s">
+        <v>63</v>
+      </c>
+      <c r="E134" t="s">
+        <v>63</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" t="s">
+        <v>63</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E136" t="s">
+        <v>64</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s">
+        <v>12</v>
+      </c>
+      <c r="E137" t="s">
+        <v>64</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>65</v>
+      </c>
+      <c r="E138" t="s">
+        <v>65</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s">
+        <v>12</v>
+      </c>
+      <c r="E139" t="s">
+        <v>65</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>66</v>
+      </c>
+      <c r="E140" t="s">
+        <v>66</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141" t="s">
+        <v>66</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
+        <v>67</v>
+      </c>
+      <c r="E142" t="s">
+        <v>67</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C143" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143" t="s">
+        <v>67</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="E144" t="s">
+        <v>68</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s">
+        <v>12</v>
+      </c>
+      <c r="E145" t="s">
+        <v>68</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" t="s">
+        <v>69</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C147" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s">
+        <v>12</v>
+      </c>
+      <c r="E147" t="s">
+        <v>69</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C148" t="s">
+        <v>70</v>
+      </c>
+      <c r="E148" t="s">
+        <v>70</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C149" t="s">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s">
+        <v>12</v>
+      </c>
+      <c r="E149" t="s">
+        <v>70</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C150" t="s">
+        <v>14</v>
+      </c>
+      <c r="E150" t="s">
+        <v>14</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C151" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" t="s">
+        <v>15</v>
+      </c>
+      <c r="E151" t="s">
+        <v>14</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C152" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152" t="s">
+        <v>16</v>
+      </c>
+      <c r="E152" t="s">
+        <v>14</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C153" t="s">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s">
+        <v>17</v>
+      </c>
+      <c r="E153" t="s">
+        <v>14</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>6</v>
+      </c>
+      <c r="E156" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C158" t="s">
+        <v>22</v>
+      </c>
+      <c r="D158" t="s">
+        <v>8</v>
+      </c>
+      <c r="E158" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C160" t="s">
+        <v>13</v>
+      </c>
+      <c r="E160" t="s">
+        <v>13</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="161" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C161" t="s">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s">
+        <v>12</v>
+      </c>
+      <c r="E161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="162" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C162" t="s">
+        <v>25</v>
+      </c>
+      <c r="E162" t="s">
+        <v>25</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="163" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C163" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s">
+        <v>12</v>
+      </c>
+      <c r="E163" t="s">
+        <v>25</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="164" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C164" t="s">
+        <v>71</v>
+      </c>
+      <c r="E164" t="s">
+        <v>71</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="165" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C165" t="s">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s">
+        <v>12</v>
+      </c>
+      <c r="E165" t="s">
+        <v>71</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="166" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C166" t="s">
+        <v>72</v>
+      </c>
+      <c r="E166" t="s">
+        <v>72</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="167" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C167" t="s">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s">
+        <v>12</v>
+      </c>
+      <c r="E167" t="s">
+        <v>72</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="168" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C168" t="s">
+        <v>73</v>
+      </c>
+      <c r="E168" t="s">
+        <v>73</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="169" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C169" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s">
+        <v>12</v>
+      </c>
+      <c r="E169" t="s">
+        <v>73</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="170" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C170" t="s">
+        <v>74</v>
+      </c>
+      <c r="E170" t="s">
+        <v>74</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="171" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C171" t="s">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s">
+        <v>12</v>
+      </c>
+      <c r="E171" t="s">
+        <v>74</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="172" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C172" t="s">
+        <v>75</v>
+      </c>
+      <c r="E172" t="s">
+        <v>75</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="173" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C173" t="s">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s">
+        <v>12</v>
+      </c>
+      <c r="E173" t="s">
+        <v>75</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="174" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C174" t="s">
+        <v>76</v>
+      </c>
+      <c r="E174" t="s">
+        <v>76</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="175" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C175" t="s">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s">
+        <v>12</v>
+      </c>
+      <c r="E175" t="s">
+        <v>76</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="176" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C176" t="s">
+        <v>77</v>
+      </c>
+      <c r="E176" t="s">
+        <v>77</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C177" t="s">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s">
+        <v>12</v>
+      </c>
+      <c r="E177" t="s">
+        <v>77</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C178" t="s">
+        <v>78</v>
+      </c>
+      <c r="E178" t="s">
+        <v>78</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C179" t="s">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s">
+        <v>12</v>
+      </c>
+      <c r="E179" t="s">
+        <v>78</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C180" t="s">
+        <v>79</v>
+      </c>
+      <c r="E180" t="s">
+        <v>79</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C181" t="s">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s">
+        <v>12</v>
+      </c>
+      <c r="E181" t="s">
+        <v>79</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C182" t="s">
+        <v>14</v>
+      </c>
+      <c r="E182" t="s">
+        <v>14</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C183" t="s">
+        <v>15</v>
+      </c>
+      <c r="D183" t="s">
+        <v>15</v>
+      </c>
+      <c r="E183" t="s">
+        <v>14</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C184" t="s">
+        <v>16</v>
+      </c>
+      <c r="D184" t="s">
+        <v>16</v>
+      </c>
+      <c r="E184" t="s">
+        <v>14</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C185" t="s">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s">
+        <v>17</v>
+      </c>
+      <c r="E185" t="s">
+        <v>14</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>6</v>
+      </c>
+      <c r="E188" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C190" t="s">
+        <v>23</v>
+      </c>
+      <c r="D190" t="s">
+        <v>8</v>
+      </c>
+      <c r="E190" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C192" t="s">
+        <v>13</v>
+      </c>
+      <c r="E192" t="s">
+        <v>13</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="193" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C193" t="s">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s">
+        <v>12</v>
+      </c>
+      <c r="E193" t="s">
+        <v>13</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="194" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C194" t="s">
+        <v>25</v>
+      </c>
+      <c r="E194" t="s">
+        <v>25</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="195" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C195" t="s">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s">
+        <v>12</v>
+      </c>
+      <c r="E195" t="s">
+        <v>25</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="196" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C196" t="s">
+        <v>81</v>
+      </c>
+      <c r="E196" t="s">
+        <v>81</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="197" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C197" t="s">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s">
+        <v>12</v>
+      </c>
+      <c r="E197" t="s">
+        <v>81</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="198" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C198" t="s">
+        <v>82</v>
+      </c>
+      <c r="E198" t="s">
+        <v>82</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="199" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C199" t="s">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s">
+        <v>12</v>
+      </c>
+      <c r="E199" t="s">
+        <v>82</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="200" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C200" t="s">
+        <v>28</v>
+      </c>
+      <c r="E200" t="s">
+        <v>28</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="201" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C201" t="s">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s">
+        <v>12</v>
+      </c>
+      <c r="E201" t="s">
+        <v>28</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="202" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C202" t="s">
+        <v>84</v>
+      </c>
+      <c r="E202" t="s">
+        <v>84</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="203" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C203" t="s">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s">
+        <v>12</v>
+      </c>
+      <c r="E203" t="s">
+        <v>84</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="204" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C204" t="s">
+        <v>86</v>
+      </c>
+      <c r="E204" t="s">
+        <v>86</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="205" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C205" t="s">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s">
+        <v>12</v>
+      </c>
+      <c r="E205" t="s">
+        <v>86</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="206" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C206" t="s">
+        <v>87</v>
+      </c>
+      <c r="E206" t="s">
+        <v>87</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="207" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C207" t="s">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s">
+        <v>12</v>
+      </c>
+      <c r="E207" t="s">
+        <v>87</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="208" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C208" t="s">
+        <v>88</v>
+      </c>
+      <c r="E208" t="s">
+        <v>88</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="209" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C209" t="s">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s">
+        <v>12</v>
+      </c>
+      <c r="E209" t="s">
+        <v>88</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="210" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C210" t="s">
+        <v>89</v>
+      </c>
+      <c r="E210" t="s">
+        <v>89</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="211" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C211" t="s">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s">
+        <v>12</v>
+      </c>
+      <c r="E211" t="s">
+        <v>89</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="212" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C212" t="s">
+        <v>90</v>
+      </c>
+      <c r="E212" t="s">
+        <v>90</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="213" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C213" t="s">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s">
+        <v>12</v>
+      </c>
+      <c r="E213" t="s">
+        <v>90</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="214" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C214" t="s">
+        <v>91</v>
+      </c>
+      <c r="E214" t="s">
+        <v>91</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="215" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C215" t="s">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s">
+        <v>12</v>
+      </c>
+      <c r="E215" t="s">
+        <v>91</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="216" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C216" t="s">
+        <v>93</v>
+      </c>
+      <c r="E216" t="s">
+        <v>93</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="217" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C217" t="s">
+        <v>11</v>
+      </c>
+      <c r="D217" t="s">
+        <v>12</v>
+      </c>
+      <c r="E217" t="s">
+        <v>93</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="218" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C218" t="s">
+        <v>94</v>
+      </c>
+      <c r="E218" t="s">
+        <v>94</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="219" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C219" t="s">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s">
+        <v>12</v>
+      </c>
+      <c r="E219" t="s">
+        <v>94</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="220" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C220" t="s">
+        <v>95</v>
+      </c>
+      <c r="E220" t="s">
+        <v>95</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="221" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C221" t="s">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s">
+        <v>12</v>
+      </c>
+      <c r="E221" t="s">
+        <v>95</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="222" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C222" t="s">
+        <v>97</v>
+      </c>
+      <c r="E222" t="s">
+        <v>97</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="223" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C223" t="s">
+        <v>11</v>
+      </c>
+      <c r="D223" t="s">
+        <v>12</v>
+      </c>
+      <c r="E223" t="s">
+        <v>97</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="224" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C224" t="s">
+        <v>98</v>
+      </c>
+      <c r="E224" t="s">
+        <v>98</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="225" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C225" t="s">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s">
+        <v>12</v>
+      </c>
+      <c r="E225" t="s">
+        <v>98</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="226" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C226" t="s">
+        <v>99</v>
+      </c>
+      <c r="E226" t="s">
+        <v>99</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="227" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C227" t="s">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s">
+        <v>12</v>
+      </c>
+      <c r="E227" t="s">
+        <v>99</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="228" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C228" t="s">
+        <v>100</v>
+      </c>
+      <c r="E228" t="s">
+        <v>100</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="229" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C229" t="s">
+        <v>11</v>
+      </c>
+      <c r="D229" t="s">
+        <v>12</v>
+      </c>
+      <c r="E229" t="s">
+        <v>100</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="230" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C230" t="s">
+        <v>101</v>
+      </c>
+      <c r="E230" t="s">
+        <v>101</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="231" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C231" t="s">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s">
+        <v>12</v>
+      </c>
+      <c r="E231" t="s">
+        <v>101</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="232" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C232" t="s">
+        <v>14</v>
+      </c>
+      <c r="E232" t="s">
+        <v>14</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="233" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C233" t="s">
+        <v>15</v>
+      </c>
+      <c r="D233" t="s">
+        <v>15</v>
+      </c>
+      <c r="E233" t="s">
+        <v>14</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="234" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C234" t="s">
+        <v>16</v>
+      </c>
+      <c r="D234" t="s">
+        <v>16</v>
+      </c>
+      <c r="E234" t="s">
+        <v>14</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="235" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C235" t="s">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s">
+        <v>17</v>
+      </c>
+      <c r="E235" t="s">
+        <v>14</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
